--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H2">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I2">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J2">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.1686942107306</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N2">
-        <v>15.1686942107306</v>
+        <v>46.980431</v>
       </c>
       <c r="O2">
-        <v>0.753243867366462</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P2">
-        <v>0.753243867366462</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q2">
-        <v>1236.603802160557</v>
+        <v>1295.677921071334</v>
       </c>
       <c r="R2">
-        <v>1236.603802160557</v>
+        <v>11661.10128964201</v>
       </c>
       <c r="S2">
-        <v>0.07409967624189255</v>
+        <v>0.07239165773197129</v>
       </c>
       <c r="T2">
-        <v>0.07409967624189255</v>
+        <v>0.07239165773197125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H3">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I3">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J3">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.945362273403315</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N3">
-        <v>0.945362273403315</v>
+        <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04694460347001523</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P3">
-        <v>0.04694460347001523</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q3">
-        <v>77.06916399453085</v>
+        <v>82.05959348605199</v>
       </c>
       <c r="R3">
-        <v>77.06916399453085</v>
+        <v>738.536341374468</v>
       </c>
       <c r="S3">
-        <v>0.004618132412540153</v>
+        <v>0.004584804532560931</v>
       </c>
       <c r="T3">
-        <v>0.004618132412540153</v>
+        <v>0.004584804532560929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.5234182310671</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H4">
-        <v>81.5234182310671</v>
+        <v>248.211884</v>
       </c>
       <c r="I4">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J4">
-        <v>0.09837408501042888</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.02376987980892</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N4">
-        <v>4.02376987980892</v>
+        <v>0.264995</v>
       </c>
       <c r="O4">
-        <v>0.1998115291635227</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P4">
-        <v>0.1998115291635227</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q4">
-        <v>328.0314747772331</v>
+        <v>7.308323133397777</v>
       </c>
       <c r="R4">
-        <v>328.0314747772331</v>
+        <v>65.77490820058</v>
       </c>
       <c r="S4">
-        <v>0.01965627635599617</v>
+        <v>0.0004083280406832309</v>
       </c>
       <c r="T4">
-        <v>0.01965627635599617</v>
+        <v>0.0004083280406832308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>236.457220390705</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H5">
-        <v>236.457220390705</v>
+        <v>248.211884</v>
       </c>
       <c r="I5">
-        <v>0.2853322788074714</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J5">
-        <v>0.2853322788074714</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.1686942107306</v>
+        <v>0.008727</v>
       </c>
       <c r="N5">
-        <v>15.1686942107306</v>
+        <v>0.026181</v>
       </c>
       <c r="O5">
-        <v>0.753243867366462</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P5">
-        <v>0.753243867366462</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q5">
-        <v>3586.747270025936</v>
+        <v>0.722048370556</v>
       </c>
       <c r="R5">
-        <v>3586.747270025936</v>
+        <v>6.498435335003999</v>
       </c>
       <c r="S5">
-        <v>0.2149247891734253</v>
+        <v>4.034203072936347E-05</v>
       </c>
       <c r="T5">
-        <v>0.2149247891734253</v>
+        <v>4.034203072936345E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>236.457220390705</v>
+        <v>82.73729466666667</v>
       </c>
       <c r="H6">
-        <v>236.457220390705</v>
+        <v>248.211884</v>
       </c>
       <c r="I6">
-        <v>0.2853322788074714</v>
+        <v>0.09847102321391109</v>
       </c>
       <c r="J6">
-        <v>0.2853322788074714</v>
+        <v>0.09847102321391106</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.945362273403315</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N6">
-        <v>0.945362273403315</v>
+        <v>13.658273</v>
       </c>
       <c r="O6">
-        <v>0.04694460347001523</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P6">
-        <v>0.04694460347001523</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q6">
-        <v>223.5377354311856</v>
+        <v>376.6828526129258</v>
       </c>
       <c r="R6">
-        <v>223.5377354311856</v>
+        <v>3390.145673516332</v>
       </c>
       <c r="S6">
-        <v>0.01339481068581257</v>
+        <v>0.02104589087796629</v>
       </c>
       <c r="T6">
-        <v>0.01339481068581257</v>
+        <v>0.02104589087796628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>236.457220390705</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H7">
-        <v>236.457220390705</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I7">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J7">
-        <v>0.2853322788074714</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.02376987980892</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N7">
-        <v>4.02376987980892</v>
+        <v>46.980431</v>
       </c>
       <c r="O7">
-        <v>0.1998115291635227</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P7">
-        <v>0.1998115291635227</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q7">
-        <v>951.4494412714583</v>
+        <v>3712.579846288102</v>
       </c>
       <c r="R7">
-        <v>951.4494412714583</v>
+        <v>33413.21861659292</v>
       </c>
       <c r="S7">
-        <v>0.05701267894823345</v>
+        <v>0.2074279457605314</v>
       </c>
       <c r="T7">
-        <v>0.05701267894823345</v>
+        <v>0.2074279457605314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>276.653153049199</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H8">
-        <v>276.653153049199</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I8">
-        <v>0.3338366004149438</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J8">
-        <v>0.3338366004149438</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.1686942107306</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N8">
-        <v>15.1686942107306</v>
+        <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.753243867366462</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P8">
-        <v>0.753243867366462</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q8">
-        <v>4196.467081037751</v>
+        <v>235.130033487804</v>
       </c>
       <c r="R8">
-        <v>4196.467081037751</v>
+        <v>2116.170301390236</v>
       </c>
       <c r="S8">
-        <v>0.2514603719650245</v>
+        <v>0.01313710192165799</v>
       </c>
       <c r="T8">
-        <v>0.2514603719650245</v>
+        <v>0.01313710192165799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>276.653153049199</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H9">
-        <v>276.653153049199</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I9">
-        <v>0.3338366004149438</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J9">
-        <v>0.3338366004149438</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.945362273403315</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N9">
-        <v>0.945362273403315</v>
+        <v>0.264995</v>
       </c>
       <c r="O9">
-        <v>0.04694460347001523</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P9">
-        <v>0.04694460347001523</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q9">
-        <v>261.537453710786</v>
+        <v>20.94095510462889</v>
       </c>
       <c r="R9">
-        <v>261.537453710786</v>
+        <v>188.46859594166</v>
       </c>
       <c r="S9">
-        <v>0.01567182683025746</v>
+        <v>0.001170005623975906</v>
       </c>
       <c r="T9">
-        <v>0.01567182683025746</v>
+        <v>0.001170005623975906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>276.653153049199</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H10">
-        <v>276.653153049199</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I10">
-        <v>0.3338366004149438</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J10">
-        <v>0.3338366004149438</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.02376987980892</v>
+        <v>0.008727</v>
       </c>
       <c r="N10">
-        <v>4.02376987980892</v>
+        <v>0.026181</v>
       </c>
       <c r="O10">
-        <v>0.1998115291635227</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P10">
-        <v>0.1998115291635227</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q10">
-        <v>1113.188624393534</v>
+        <v>2.068926378212</v>
       </c>
       <c r="R10">
-        <v>1113.188624393534</v>
+        <v>18.620337403908</v>
       </c>
       <c r="S10">
-        <v>0.0667044016196618</v>
+        <v>0.0001155943215581925</v>
       </c>
       <c r="T10">
-        <v>0.0667044016196618</v>
+        <v>0.0001155943215581924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>185.8949378875</v>
+        <v>237.0718893333334</v>
       </c>
       <c r="H11">
-        <v>185.8949378875</v>
+        <v>711.2156680000001</v>
       </c>
       <c r="I11">
-        <v>0.2243189112963909</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="J11">
-        <v>0.2243189112963909</v>
+        <v>0.2821546391135941</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.1686942107306</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N11">
-        <v>15.1686942107306</v>
+        <v>13.658273</v>
       </c>
       <c r="O11">
-        <v>0.753243867366462</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P11">
-        <v>0.753243867366462</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q11">
-        <v>2819.783468138246</v>
+        <v>1079.330861713485</v>
       </c>
       <c r="R11">
-        <v>2819.783468138246</v>
+        <v>9713.977755421365</v>
       </c>
       <c r="S11">
-        <v>0.1689668442683279</v>
+        <v>0.0603039914858706</v>
       </c>
       <c r="T11">
-        <v>0.1689668442683279</v>
+        <v>0.06030399148587058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>185.8949378875</v>
+        <v>277.340215</v>
       </c>
       <c r="H12">
-        <v>185.8949378875</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I12">
-        <v>0.2243189112963909</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J12">
-        <v>0.2243189112963909</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.945362273403315</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N12">
-        <v>0.945362273403315</v>
+        <v>46.980431</v>
       </c>
       <c r="O12">
-        <v>0.04694460347001523</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P12">
-        <v>0.04694460347001523</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q12">
-        <v>175.738061095495</v>
+        <v>4343.187611444222</v>
       </c>
       <c r="R12">
-        <v>175.738061095495</v>
+        <v>39088.688502998</v>
       </c>
       <c r="S12">
-        <v>0.01053056234163459</v>
+        <v>0.2426610393834889</v>
       </c>
       <c r="T12">
-        <v>0.01053056234163459</v>
+        <v>0.2426610393834888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>185.8949378875</v>
+        <v>277.340215</v>
       </c>
       <c r="H13">
-        <v>185.8949378875</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I13">
-        <v>0.2243189112963909</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J13">
-        <v>0.2243189112963909</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.02376987980892</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N13">
-        <v>4.02376987980892</v>
+        <v>2.975427</v>
       </c>
       <c r="O13">
-        <v>0.1998115291635227</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P13">
-        <v>0.1998115291635227</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q13">
-        <v>747.9984518806724</v>
+        <v>275.068521298935</v>
       </c>
       <c r="R13">
-        <v>747.9984518806724</v>
+        <v>2475.616691690415</v>
       </c>
       <c r="S13">
-        <v>0.04482150468642847</v>
+        <v>0.01536853096195938</v>
       </c>
       <c r="T13">
-        <v>0.04482150468642847</v>
+        <v>0.01536853096195937</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.17954480489</v>
+        <v>277.340215</v>
       </c>
       <c r="H14">
-        <v>48.17954480489</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I14">
-        <v>0.05813812447076505</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J14">
-        <v>0.05813812447076505</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>15.1686942107306</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N14">
-        <v>15.1686942107306</v>
+        <v>0.264995</v>
       </c>
       <c r="O14">
-        <v>0.753243867366462</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P14">
-        <v>0.753243867366462</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q14">
-        <v>730.8207823575705</v>
+        <v>24.49792342464166</v>
       </c>
       <c r="R14">
-        <v>730.8207823575705</v>
+        <v>220.481310821775</v>
       </c>
       <c r="S14">
-        <v>0.04379218571779181</v>
+        <v>0.001368739297675401</v>
       </c>
       <c r="T14">
-        <v>0.04379218571779181</v>
+        <v>0.0013687392976754</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.17954480489</v>
+        <v>277.340215</v>
       </c>
       <c r="H15">
-        <v>48.17954480489</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I15">
-        <v>0.05813812447076505</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J15">
-        <v>0.05813812447076505</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.945362273403315</v>
+        <v>0.008727</v>
       </c>
       <c r="N15">
-        <v>0.945362273403315</v>
+        <v>0.026181</v>
       </c>
       <c r="O15">
-        <v>0.04694460347001523</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P15">
-        <v>0.04694460347001523</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q15">
-        <v>45.54712400828769</v>
+        <v>2.420348056305</v>
       </c>
       <c r="R15">
-        <v>45.54712400828769</v>
+        <v>21.783132506745</v>
       </c>
       <c r="S15">
-        <v>0.002729271199770454</v>
+        <v>0.0001352288290437166</v>
       </c>
       <c r="T15">
-        <v>0.002729271199770454</v>
+        <v>0.0001352288290437165</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.17954480489</v>
+        <v>277.340215</v>
       </c>
       <c r="H16">
-        <v>48.17954480489</v>
+        <v>832.0206450000001</v>
       </c>
       <c r="I16">
-        <v>0.05813812447076505</v>
+        <v>0.3300805865050695</v>
       </c>
       <c r="J16">
-        <v>0.05813812447076505</v>
+        <v>0.3300805865050694</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.02376987980892</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N16">
-        <v>4.02376987980892</v>
+        <v>13.658273</v>
       </c>
       <c r="O16">
-        <v>0.1998115291635227</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P16">
-        <v>0.1998115291635227</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q16">
-        <v>193.8634012088207</v>
+        <v>1262.662790116232</v>
       </c>
       <c r="R16">
-        <v>193.8634012088207</v>
+        <v>11363.96511104609</v>
       </c>
       <c r="S16">
-        <v>0.01161666755320278</v>
+        <v>0.07054704803290211</v>
       </c>
       <c r="T16">
-        <v>0.01161666755320278</v>
+        <v>0.0705470480329021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>191.058024</v>
+      </c>
+      <c r="H17">
+        <v>573.174072</v>
+      </c>
+      <c r="I17">
+        <v>0.22739055213619</v>
+      </c>
+      <c r="J17">
+        <v>0.22739055213619</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.66014366666667</v>
+      </c>
+      <c r="N17">
+        <v>46.980431</v>
+      </c>
+      <c r="O17">
+        <v>0.735156956526318</v>
+      </c>
+      <c r="P17">
+        <v>0.7351569565263179</v>
+      </c>
+      <c r="Q17">
+        <v>2991.996104509449</v>
+      </c>
+      <c r="R17">
+        <v>26927.96494058504</v>
+      </c>
+      <c r="S17">
+        <v>0.1671677462512805</v>
+      </c>
+      <c r="T17">
+        <v>0.1671677462512804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>191.058024</v>
+      </c>
+      <c r="H18">
+        <v>573.174072</v>
+      </c>
+      <c r="I18">
+        <v>0.22739055213619</v>
+      </c>
+      <c r="J18">
+        <v>0.22739055213619</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N18">
+        <v>2.975427</v>
+      </c>
+      <c r="O18">
+        <v>0.04655993593771484</v>
+      </c>
+      <c r="P18">
+        <v>0.04655993593771483</v>
+      </c>
+      <c r="Q18">
+        <v>189.493067725416</v>
+      </c>
+      <c r="R18">
+        <v>1705.437609528744</v>
+      </c>
+      <c r="S18">
+        <v>0.01058728954030261</v>
+      </c>
+      <c r="T18">
+        <v>0.01058728954030261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>191.058024</v>
+      </c>
+      <c r="H19">
+        <v>573.174072</v>
+      </c>
+      <c r="I19">
+        <v>0.22739055213619</v>
+      </c>
+      <c r="J19">
+        <v>0.22739055213619</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08833166666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.264995</v>
+      </c>
+      <c r="O19">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="P19">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="Q19">
+        <v>16.87647368996</v>
+      </c>
+      <c r="R19">
+        <v>151.88826320964</v>
+      </c>
+      <c r="S19">
+        <v>0.0009429163584697224</v>
+      </c>
+      <c r="T19">
+        <v>0.0009429163584697222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>191.058024</v>
+      </c>
+      <c r="H20">
+        <v>573.174072</v>
+      </c>
+      <c r="I20">
+        <v>0.22739055213619</v>
+      </c>
+      <c r="J20">
+        <v>0.22739055213619</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.008727</v>
+      </c>
+      <c r="N20">
+        <v>0.026181</v>
+      </c>
+      <c r="O20">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P20">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q20">
+        <v>1.667363375448</v>
+      </c>
+      <c r="R20">
+        <v>15.006270379032</v>
+      </c>
+      <c r="S20">
+        <v>9.315833574631902E-05</v>
+      </c>
+      <c r="T20">
+        <v>9.315833574631898E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>191.058024</v>
+      </c>
+      <c r="H21">
+        <v>573.174072</v>
+      </c>
+      <c r="I21">
+        <v>0.22739055213619</v>
+      </c>
+      <c r="J21">
+        <v>0.22739055213619</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N21">
+        <v>13.658273</v>
+      </c>
+      <c r="O21">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P21">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q21">
+        <v>869.8408835441842</v>
+      </c>
+      <c r="R21">
+        <v>7828.567951897657</v>
+      </c>
+      <c r="S21">
+        <v>0.04859944165039089</v>
+      </c>
+      <c r="T21">
+        <v>0.04859944165039088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>52.01228800000001</v>
+      </c>
+      <c r="H22">
+        <v>156.036864</v>
+      </c>
+      <c r="I22">
+        <v>0.0619031990312353</v>
+      </c>
+      <c r="J22">
+        <v>0.06190319903123528</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.66014366666667</v>
+      </c>
+      <c r="N22">
+        <v>46.980431</v>
+      </c>
+      <c r="O22">
+        <v>0.735156956526318</v>
+      </c>
+      <c r="P22">
+        <v>0.7351569565263179</v>
+      </c>
+      <c r="Q22">
+        <v>814.5199025120428</v>
+      </c>
+      <c r="R22">
+        <v>7330.679122608385</v>
+      </c>
+      <c r="S22">
+        <v>0.04550856739904586</v>
+      </c>
+      <c r="T22">
+        <v>0.04550856739904584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>52.01228800000001</v>
+      </c>
+      <c r="H23">
+        <v>156.036864</v>
+      </c>
+      <c r="I23">
+        <v>0.0619031990312353</v>
+      </c>
+      <c r="J23">
+        <v>0.06190319903123528</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.975427</v>
+      </c>
+      <c r="O23">
+        <v>0.04655993593771484</v>
+      </c>
+      <c r="P23">
+        <v>0.04655993593771483</v>
+      </c>
+      <c r="Q23">
+        <v>51.586255348992</v>
+      </c>
+      <c r="R23">
+        <v>464.276298140928</v>
+      </c>
+      <c r="S23">
+        <v>0.002882208981233927</v>
+      </c>
+      <c r="T23">
+        <v>0.002882208981233926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>52.01228800000001</v>
+      </c>
+      <c r="H24">
+        <v>156.036864</v>
+      </c>
+      <c r="I24">
+        <v>0.0619031990312353</v>
+      </c>
+      <c r="J24">
+        <v>0.06190319903123528</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.08833166666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.264995</v>
+      </c>
+      <c r="O24">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="P24">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="Q24">
+        <v>4.594332086186666</v>
+      </c>
+      <c r="R24">
+        <v>41.34898877568</v>
+      </c>
+      <c r="S24">
+        <v>0.0002566928944928188</v>
+      </c>
+      <c r="T24">
+        <v>0.0002566928944928187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>52.01228800000001</v>
+      </c>
+      <c r="H25">
+        <v>156.036864</v>
+      </c>
+      <c r="I25">
+        <v>0.0619031990312353</v>
+      </c>
+      <c r="J25">
+        <v>0.06190319903123528</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.008727</v>
+      </c>
+      <c r="N25">
+        <v>0.026181</v>
+      </c>
+      <c r="O25">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P25">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q25">
+        <v>0.4539112373760001</v>
+      </c>
+      <c r="R25">
+        <v>4.085201136384</v>
+      </c>
+      <c r="S25">
+        <v>2.536076782851183E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.536076782851181E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>52.01228800000001</v>
+      </c>
+      <c r="H26">
+        <v>156.036864</v>
+      </c>
+      <c r="I26">
+        <v>0.0619031990312353</v>
+      </c>
+      <c r="J26">
+        <v>0.06190319903123528</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N26">
+        <v>13.658273</v>
+      </c>
+      <c r="O26">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P26">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q26">
+        <v>236.7993429528747</v>
+      </c>
+      <c r="R26">
+        <v>2131.194086575872</v>
+      </c>
+      <c r="S26">
+        <v>0.01323036898863419</v>
+      </c>
+      <c r="T26">
+        <v>0.01323036898863418</v>
       </c>
     </row>
   </sheetData>
